--- a/r2/bom/tr20-r2.xlsx
+++ b/r2/bom/tr20-r2.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="tr20_bom_" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="367">
   <si>
     <t xml:space="preserve">References</t>
   </si>
@@ -40,19 +40,64 @@
     <t xml:space="preserve">MPN</t>
   </si>
   <si>
+    <t xml:space="preserve">Allnet questions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSC equiv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit RMB an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit USD an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit USD jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line RMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitute</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Footprint</t>
+    <t xml:space="preserve">Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
   </si>
   <si>
     <t xml:space="preserve">A1</t>
   </si>
   <si>
+    <t xml:space="preserve">ESP32- WROVER-B(M213DH2864 PC3Q0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espressif</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESP32-WROVER</t>
   </si>
   <si>
-    <t xml:space="preserve">ESP32-WROVER-I</t>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C129145</t>
   </si>
   <si>
     <t xml:space="preserve">C47</t>
@@ -61,42 +106,93 @@
     <t xml:space="preserve">1.5nF</t>
   </si>
   <si>
-    <t xml:space="preserve">Unpolarized capacitor</t>
+    <t xml:space="preserve">Murata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1557U1A152JA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C162143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2J, 1.5nF, 10V, -5%/+5%</t>
   </si>
   <si>
     <t xml:space="preserve">C_0402_1005Metric</t>
   </si>
   <si>
+    <t xml:space="preserve">Critical – U2J, UJ, C0G only. (X7R is not suitable)</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3 C5 C11 C25 C26 C27 C28 C29 C30 C31 C34 C38 C41 C42 C75 C77</t>
   </si>
   <si>
     <t xml:space="preserve">100nF</t>
   </si>
   <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yageo</t>
+  </si>
+  <si>
     <t xml:space="preserve">C32 C35 C49</t>
   </si>
   <si>
     <t xml:space="preserve">100pF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM1555C1H101JA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G/NP0, 100pF, 50V, -5%/+5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical</t>
+  </si>
+  <si>
     <t xml:space="preserve">C48 C66</t>
   </si>
   <si>
     <t xml:space="preserve">10nF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM155R71E103KA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X7R, 10nF, 25V, -10%/+10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1 C2 C45 C46 C52</t>
   </si>
   <si>
     <t xml:space="preserve">15pF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM1555C1H150JA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G/NP0, 15pF, 50V, -5%/+5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">C55 C72</t>
   </si>
   <si>
     <t xml:space="preserve">1pF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM1555C1H1R0BA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G/NP0, 1pF, 50V, -0.1pF/+0.1pF</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6 C7 C8 C9 C10 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C33 C36 C39 C40 C43 C44 C73 C74 C76 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87</t>
   </si>
   <si>
@@ -106,51 +202,105 @@
     <t xml:space="preserve">50V</t>
   </si>
   <si>
+    <t xml:space="preserve">CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5R, 1uF, 50V, -10%/+10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">C_0603_1608Metric</t>
   </si>
   <si>
+    <t xml:space="preserve">50V Critical</t>
+  </si>
+  <si>
     <t xml:space="preserve">C57</t>
   </si>
   <si>
     <t xml:space="preserve">2.2pF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM1555C1H2R2CA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G/NP0, 2.2pF, 50V, -0.25pF/+0.25pF</t>
+  </si>
+  <si>
     <t xml:space="preserve">C68</t>
   </si>
   <si>
     <t xml:space="preserve">220nF</t>
   </si>
   <si>
+    <t xml:space="preserve">CL05A224KP5NNNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5R, 220nF, 10V, -15%/+15%</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4 C12</t>
   </si>
   <si>
     <t xml:space="preserve">22uF</t>
   </si>
   <si>
+    <t xml:space="preserve">10V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL10A226MP8NUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5R, 22uF,10V, 0603, -20%/+20%</t>
+  </si>
+  <si>
     <t xml:space="preserve">C54 C60</t>
   </si>
   <si>
     <t xml:space="preserve">3.3pF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM1555C1H3R3WA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G/NP0, 3.3pF, 50V, -0.25pF/+0.25pF</t>
+  </si>
+  <si>
     <t xml:space="preserve">C50</t>
   </si>
   <si>
     <t xml:space="preserve">33pF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM1555C1H330JA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G/NP0, 33pF, 50V, -5%/+5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">C61</t>
   </si>
   <si>
     <t xml:space="preserve">3pF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM1555C1H3R0BA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G/NP0, 3pF, 50V, -0.25pF/+0.25pF</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13 C14</t>
   </si>
   <si>
     <t xml:space="preserve">4.7uF</t>
   </si>
   <si>
+    <t xml:space="preserve">CL21A475KBQNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5R, 4.7uF, 50V, 0805, -10%/+10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">C_0805_2012Metric</t>
   </si>
   <si>
@@ -160,16 +310,31 @@
     <t xml:space="preserve">47nF</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM155R71E473KA88D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5R, 47nF, 25V, -10%/+10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">D5 D6 D7 D11 D12 D17 D18 D19 D20 D21</t>
   </si>
   <si>
-    <t xml:space="preserve"> ESD5Z6.0T5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD5Z5.0VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bidirectional transient-voltage-suppression diode</t>
+    <t xml:space="preserve">ESD5Z6.0T5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Semi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C261278 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidirectional transient-voltage-suppression diode 6V</t>
   </si>
   <si>
     <t xml:space="preserve">SOD-523-numbered-pads</t>
@@ -187,6 +352,12 @@
     <t xml:space="preserve">LTST-C150KGKT</t>
   </si>
   <si>
+    <t xml:space="preserve">Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C99881</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED GREEN CLEAR 1206 SMD</t>
   </si>
   <si>
@@ -199,43 +370,70 @@
     <t xml:space="preserve">LTST-C150KSKT</t>
   </si>
   <si>
+    <t xml:space="preserve">C130716 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED ORANGE CLEAR 1206 SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3 D8 D9 D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS13FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Semi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C190475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky diode 30V, 1A, 500ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-123F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C93094</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED YELLOW CLEAR 1206 SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">D3 D8 D9 D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS13FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schottky diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SOD-123F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow</t>
-  </si>
-  <si>
     <t xml:space="preserve">J7</t>
   </si>
   <si>
     <t xml:space="preserve">2x03-socket-2.54-through-board</t>
   </si>
   <si>
-    <t xml:space="preserve">Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PinSocket_2x03_P2.54mm_Through-Board-Mating</t>
+    <t xml:space="preserve">Nick selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply drawing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C92272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinSocket_2x03_P2.54mm_Vertical</t>
   </si>
   <si>
     <t xml:space="preserve">J1 J9</t>
   </si>
   <si>
-    <t xml:space="preserve">Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+    <t xml:space="preserve">Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C132528</t>
   </si>
   <si>
     <t xml:space="preserve">Molex_PicoBlade_53261-0271_1x02-1MP_P1.25mm_Horizontal</t>
@@ -247,10 +445,13 @@
     <t xml:space="preserve">AFC07-S24ECA-00</t>
   </si>
   <si>
-    <t xml:space="preserve">Generic connector, single row, 01x24, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC07x24-1MP_P0.5mm_Horizontal</t>
+    <t xml:space="preserve">Jushuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C262643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFC connector, top contact, 24pos, 0.5mm pitch</t>
   </si>
   <si>
     <t xml:space="preserve">J10</t>
@@ -259,7 +460,19 @@
     <t xml:space="preserve">PJ-320D</t>
   </si>
   <si>
-    <t xml:space="preserve">Audio Jack, 4 Poles (TRRS)</t>
+    <t xml:space="preserve">Korean Hroparts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ-320D-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check rev1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C431535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio Jack, 3.5mm SMD</t>
   </si>
   <si>
     <t xml:space="preserve">Jack_3.5mm_PJ320D_Horizontal</t>
@@ -271,19 +484,34 @@
     <t xml:space="preserve">TF-15x15</t>
   </si>
   <si>
+    <t xml:space="preserve">SOFNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C111196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroSD connector, ejector</t>
+  </si>
+  <si>
     <t xml:space="preserve">microSD_HC_Sofng_TF-15</t>
   </si>
   <si>
     <t xml:space="preserve">J3</t>
   </si>
   <si>
-    <t xml:space="preserve">UJ2-AH-1-SMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB Type A connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-A-short-body</t>
+    <t xml:space="preserve">USB-A-10mm-flangeless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQMART vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff supplied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-A connector SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jing-lcsc-C46400</t>
   </si>
   <si>
     <t xml:space="preserve">J2</t>
@@ -292,6 +520,9 @@
     <t xml:space="preserve">USB-C-12</t>
   </si>
   <si>
+    <t xml:space="preserve">USB-C connector, 12 pin</t>
+  </si>
+  <si>
     <t xml:space="preserve">jing-usb-c-lcsc-C167321</t>
   </si>
   <si>
@@ -301,6 +532,15 @@
     <t xml:space="preserve">10nH</t>
   </si>
   <si>
+    <t xml:space="preserve">LQW15AN10NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C184029 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inductor</t>
   </si>
   <si>
@@ -313,7 +553,19 @@
     <t xml:space="preserve">10uH 1A</t>
   </si>
   <si>
-    <t xml:space="preserve">NRS4018T100M</t>
+    <t xml:space="preserve">SXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMNR5020-100MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RXW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C135285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uH, 1A, 5x5x2mm</t>
   </si>
   <si>
     <t xml:space="preserve">L_Taiyo-Yuden_MD-5050</t>
@@ -325,30 +577,60 @@
     <t xml:space="preserve">12nH</t>
   </si>
   <si>
+    <t xml:space="preserve">LQW15AN12NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82920</t>
+  </si>
+  <si>
     <t xml:space="preserve">L4</t>
   </si>
   <si>
     <t xml:space="preserve">15nH</t>
   </si>
   <si>
+    <t xml:space="preserve">LQW15AN15NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C94079 </t>
+  </si>
+  <si>
     <t xml:space="preserve">L7</t>
   </si>
   <si>
     <t xml:space="preserve">18nH</t>
   </si>
   <si>
+    <t xml:space="preserve">LQW15AN18NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82917</t>
+  </si>
+  <si>
     <t xml:space="preserve">L5</t>
   </si>
   <si>
     <t xml:space="preserve">7.5nH</t>
   </si>
   <si>
+    <t xml:space="preserve">LQW15AN7N5G00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82918</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED1 LED2 LED3 LED4 LED5 LED6</t>
   </si>
   <si>
     <t xml:space="preserve">SK6812</t>
   </si>
   <si>
+    <t xml:space="preserve">SK6812/WS2812B-Mini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C114583</t>
+  </si>
+  <si>
     <t xml:space="preserve">RGB LED with integrated controller</t>
   </si>
   <si>
@@ -364,13 +646,16 @@
     <t xml:space="preserve">Diodes Incorporated</t>
   </si>
   <si>
+    <t xml:space="preserve">C144153</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOSFET P-CH 20V 4.2A SOT23</t>
   </si>
   <si>
     <t xml:space="preserve">SOT-23-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1 Q2 Q3</t>
+    <t xml:space="preserve">Q1 Q2 Q3 Q7</t>
   </si>
   <si>
     <t xml:space="preserve">MMBT3904-TP</t>
@@ -379,6 +664,12 @@
     <t xml:space="preserve">Micro Commercial Co</t>
   </si>
   <si>
+    <t xml:space="preserve">LRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C77991</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRANS NPN 40V 0.2A SOT23</t>
   </si>
   <si>
@@ -388,7 +679,13 @@
     <t xml:space="preserve">SSM3K376R</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115A Id, 60V Vds, N-Channel MOSFET, SOT-23</t>
+    <t xml:space="preserve">Toshiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C113202 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSFET N-CH 30V 56mOhm @ 2A, 4.5V </t>
   </si>
   <si>
     <t xml:space="preserve">SOT-23</t>
@@ -400,7 +697,7 @@
     <t xml:space="preserve">0R</t>
   </si>
   <si>
-    <t xml:space="preserve">Resistor</t>
+    <t xml:space="preserve">+/- 1%</t>
   </si>
   <si>
     <t xml:space="preserve">R_0402_1005Metric</t>
@@ -412,12 +709,18 @@
     <t xml:space="preserve">10R</t>
   </si>
   <si>
+    <t xml:space="preserve">+/- 5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1 R2 R3 R6 R7 R11 R12 R14 R15 R16 R19 R28 R29 R30 R31 R32 R37</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
   </si>
   <si>
+    <t xml:space="preserve">+/- 10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">R4 R5 R8 R9 R10 R13 R17 R35</t>
   </si>
   <si>
@@ -445,7 +748,13 @@
     <t xml:space="preserve">S6</t>
   </si>
   <si>
-    <t xml:space="preserve"> JS1400BFQ</t>
+    <t xml:space="preserve">K1-5202UA-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C136710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-position tactile switch</t>
   </si>
   <si>
     <t xml:space="preserve">SW_JS1400BFQ-arrows</t>
@@ -454,7 +763,10 @@
     <t xml:space="preserve">S3</t>
   </si>
   <si>
-    <t xml:space="preserve">JS102011SAQN</t>
+    <t xml:space="preserve">K3-1296S-J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C223848</t>
   </si>
   <si>
     <t xml:space="preserve">SW_SPDT_PCM12</t>
@@ -463,7 +775,7 @@
     <t xml:space="preserve">S1 S2 S4 S5 S7</t>
   </si>
   <si>
-    <t xml:space="preserve">PTS645SM43SMTR92_LFS</t>
+    <t xml:space="preserve">6x6mm tact swich</t>
   </si>
   <si>
     <t xml:space="preserve">C&amp;K</t>
@@ -472,21 +784,33 @@
     <t xml:space="preserve">PTS645SM43SMTR92 LFS</t>
   </si>
   <si>
+    <t xml:space="preserve">C393947</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWITCH TACTILE SPST-NO 0.05A 12V</t>
   </si>
   <si>
     <t xml:space="preserve">Switch_Tactile_SMD_6x6mm_PTS645</t>
   </si>
   <si>
+    <t xml:space="preserve">Yellow possible? Pantone 1375C</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
     <t xml:space="preserve">AP2114H-3_3TRG1</t>
   </si>
   <si>
+    <t xml:space="preserve">Diodes Inc.</t>
+  </si>
+  <si>
     <t xml:space="preserve">AP2114H-3.3TRG1</t>
   </si>
   <si>
+    <t xml:space="preserve">C150716</t>
+  </si>
+  <si>
     <t xml:space="preserve">IC REG LINEAR 3.3V 1A SOT223</t>
   </si>
   <si>
@@ -499,6 +823,9 @@
     <t xml:space="preserve">CC1200</t>
   </si>
   <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
     <t xml:space="preserve">Low-Power, High-Performance RF Transceiver, QFN-32</t>
   </si>
   <si>
@@ -511,6 +838,9 @@
     <t xml:space="preserve">CP2102N-A01-GQFN24</t>
   </si>
   <si>
+    <t xml:space="preserve">Si Labs</t>
+  </si>
+  <si>
     <t xml:space="preserve">USB to UART master bridge, QFN-24</t>
   </si>
   <si>
@@ -523,6 +853,12 @@
     <t xml:space="preserve">DRV2605LDGS</t>
   </si>
   <si>
+    <t xml:space="preserve">check price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C haptic driver</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSSOP-10_3x3mm_P0.5mm</t>
   </si>
   <si>
@@ -532,12 +868,30 @@
     <t xml:space="preserve">GDEH029A1</t>
   </si>
   <si>
+    <t xml:space="preserve">Good Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9” e-paper display</t>
+  </si>
+  <si>
     <t xml:space="preserve">U6</t>
   </si>
   <si>
     <t xml:space="preserve">IQS550</t>
   </si>
   <si>
+    <t xml:space="preserve">Azoteq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQS550-BL-QNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitive touch controller</t>
+  </si>
+  <si>
     <t xml:space="preserve">QFN-48-1EP_7x7mm_P0.5mm_EP5.45x5.45mm</t>
   </si>
   <si>
@@ -547,10 +901,13 @@
     <t xml:space="preserve">MCP73831T-2ACI_OT</t>
   </si>
   <si>
-    <t xml:space="preserve">Microchip Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP73831T-2ACI/OT</t>
+    <t xml:space="preserve">Microchip Semi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP73831T-3ACI/OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14879</t>
   </si>
   <si>
     <t xml:space="preserve">IC CONTROLLR LI-ION 4.2V SOT23-5</t>
@@ -565,6 +922,15 @@
     <t xml:space="preserve">PAM8908</t>
   </si>
   <si>
+    <t xml:space="preserve">Diodes, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAM8908JER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25mW STEREO TRUE CAP FREE HEADPHONE AMP </t>
+  </si>
+  <si>
     <t xml:space="preserve">QFN-16-1EP_3x3mm_P0.5mm_EP1.7x1.7mm</t>
   </si>
   <si>
@@ -574,6 +940,12 @@
     <t xml:space="preserve">PCA9555</t>
   </si>
   <si>
+    <t xml:space="preserve">PCA9555PW,112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C IO Expander, with internal pull-ups</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSSOP-24_4.4x7.8mm_P0.65mm</t>
   </si>
   <si>
@@ -583,6 +955,12 @@
     <t xml:space="preserve">PCM5100A</t>
   </si>
   <si>
+    <t xml:space="preserve">PCM5100APWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C131154</t>
+  </si>
+  <si>
     <t xml:space="preserve">2VRMS DirectPath, 100dB Audio Stereo DAC with 32-bit, 384kHz PCM Interface, TSSOP-20</t>
   </si>
   <si>
@@ -595,10 +973,16 @@
     <t xml:space="preserve">32.768kHz</t>
   </si>
   <si>
-    <t xml:space="preserve">SSP-T7-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two pin crystal</t>
+    <t xml:space="preserve">Seiko Epson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13FC1350000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.768kHz, 7pF</t>
   </si>
   <si>
     <t xml:space="preserve">Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
@@ -610,65 +994,149 @@
     <t xml:space="preserve">40Mhz</t>
   </si>
   <si>
-    <t xml:space="preserve">Four pin crystal, GND on pins 2 and 4</t>
+    <t xml:space="preserve">X1E000021017700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C255943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40Mhz, 10ppm, 10ppm, 7pF, 40ohm</t>
   </si>
   <si>
     <t xml:space="preserve">Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Component Groups:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component Count:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fitted Components:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of PCBs:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total components:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schematic Version:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schematic Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCB Variant:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"default"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BoM Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thu 19 Dec 2019 18:07:54 CST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schematic Source:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/jeff/projects/2019/tr20-badge/repos/tr20-badge-hw/r2/tr20/tr20.sch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KiCad Version:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eeschema 5.99.0-unknown-r17145-8bd2765f</t>
+    <t xml:space="preserve">Linear Resonant Actuator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ineed Youngsun Technology Co., Ltd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0832BE03L15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Resonant Actuator Ø8x3.2T, 235Hz, 1.8Vrms AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Taiyang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP375080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500mAh Lipo with Molex 510210200, 50mm wire length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earbuds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNP, user supplied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Guan Siyuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom, 0.75m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inkjet printing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser cut coverlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ Chong Ming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr20-coverlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB Fabrication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check before substituting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not substitute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units to build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention Allnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention Jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom colour specification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to receive from ERNW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total budget gbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total gbp available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene assy plus bare boards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCD quote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -689,16 +1157,165 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8A202"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -706,8 +1323,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -731,21 +1363,249 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Accent 1 17" xfId="20"/>
+    <cellStyle name="Accent 16" xfId="21"/>
+    <cellStyle name="Accent 2 18" xfId="22"/>
+    <cellStyle name="Accent 3 19" xfId="23"/>
+    <cellStyle name="Bad 13" xfId="24"/>
+    <cellStyle name="Error 15" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 11" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Hyperlink 9" xfId="31"/>
+    <cellStyle name="Neutral 12" xfId="32"/>
+    <cellStyle name="Note 7" xfId="33"/>
+    <cellStyle name="Status 10" xfId="34"/>
+    <cellStyle name="Text 6" xfId="35"/>
+    <cellStyle name="Warning 14" xfId="36"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFE8A202"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -754,1182 +1614,5231 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:BL99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="124.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="144.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="52.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="47.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="52.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="41.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="41.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B2*$Q$80/I2,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K2" s="2" t="n">
+        <f aca="false">IF(I2&gt;0,I2*J2,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <f aca="false">L2*$L$77</f>
+        <v>3.5</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <f aca="false">K2*L2</f>
+        <v>13750</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <f aca="false">O2*$L$77</f>
+        <v>1925</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B3*$Q$80/I3,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <f aca="false">L3*$L$77</f>
+        <v>0.012236</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <f aca="false">K3*L3</f>
+        <v>52.44</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <f aca="false">O3*$L$77</f>
+        <v>7.3416</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B4*$Q$80/I4,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">IF(I4&gt;0,I4*J4,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <f aca="false">L4*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="4" t="n">
+        <f aca="false">K4*L4</f>
+        <v>109.25</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <f aca="false">O4*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B5*$Q$80/I5,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">IF(I5&gt;0,I5*J5,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <f aca="false">L5*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="4" t="n">
+        <f aca="false">K5*L5</f>
+        <v>109.25</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <f aca="false">O5*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B6*$Q$80/I6,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">IF(I6&gt;0,I6*J6,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <f aca="false">L6*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="4" t="n">
+        <f aca="false">K6*L6</f>
+        <v>109.25</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <f aca="false">O6*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B7*$Q$80/I7,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">IF(I7&gt;0,I7*J7,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <f aca="false">L7*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="4" t="n">
+        <f aca="false">K7*L7</f>
+        <v>109.25</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <f aca="false">O7*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B8*$Q$80/I8,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">IF(I8&gt;0,I8*J8,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L8" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <f aca="false">L8*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="4" t="n">
+        <f aca="false">K8*L8</f>
+        <v>109.25</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <f aca="false">O8*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B9*$Q$80/I9,0), "" )</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">IF(I9&gt;0,I9*J9,$Q$80)</f>
+        <v>20000</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>0.04485</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <f aca="false">L9*$L$77</f>
+        <v>0.006279</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="4" t="n">
+        <f aca="false">K9*L9</f>
+        <v>897</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <f aca="false">O9*$L$77</f>
+        <v>125.58</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="11"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="F10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B10*$Q$80/I10,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">IF(I10&gt;0,I10*J10,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L10" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <f aca="false">L10*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="4" t="n">
+        <f aca="false">K10*L10</f>
+        <v>109.25</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <f aca="false">O10*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B11*$Q$80/I11,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">IF(I11&gt;0,I11*J11,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <f aca="false">L11*$L$77</f>
+        <v>0.00322</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="4" t="n">
+        <f aca="false">K11*L11</f>
+        <v>230</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <f aca="false">O11*$L$77</f>
+        <v>32.2</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J12" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B12*$Q$80/I12,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">IF(I12&gt;0,I12*J12,$Q$80)</f>
+        <v>4000</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>0.1127</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <f aca="false">L12*$L$77</f>
+        <v>0.015778</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="4" t="n">
+        <f aca="false">K12*L12</f>
+        <v>450.8</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <f aca="false">O12*$L$77</f>
+        <v>63.112</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B13*$Q$80/I13,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">IF(I13&gt;0,I13*J13,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <f aca="false">L13*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="4" t="n">
+        <f aca="false">K13*L13</f>
+        <v>109.25</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <f aca="false">O13*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="T13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B14*$Q$80/I14,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">IF(I14&gt;0,I14*J14,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <f aca="false">L14*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="4" t="n">
+        <f aca="false">K14*L14</f>
+        <v>109.25</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <f aca="false">O14*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="11"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B15*$Q$80/I15,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">IF(I15&gt;0,I15*J15,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>0.010925</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <f aca="false">L15*$L$77</f>
+        <v>0.0015295</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="4" t="n">
+        <f aca="false">K15*L15</f>
+        <v>109.25</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <f aca="false">O15*$L$77</f>
+        <v>15.295</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="11"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="11"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="11"/>
+      <c r="BK15" s="11"/>
+      <c r="BL15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0" t="s">
+      <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B16*$Q$80/I16,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">IF(I16&gt;0,I16*J16,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L16" s="11" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <f aca="false">L16*$L$77</f>
+        <v>0.02898</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="4" t="n">
+        <f aca="false">K16*L16</f>
+        <v>621</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <f aca="false">O16*$L$77</f>
+        <v>86.94</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="F17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B17*$Q$80/I17,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">IF(I17&gt;0,I17*J17,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <f aca="false">L17*$L$77</f>
+        <v>0.002898</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="4" t="n">
+        <f aca="false">K17*L17</f>
+        <v>207</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <f aca="false">O17*$L$77</f>
+        <v>28.98</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="11"/>
+      <c r="BJ17" s="11"/>
+      <c r="BK17" s="11"/>
+      <c r="BL17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>47</v>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B18*$Q$80/I18,0), "" )</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <f aca="false">IF(I18&gt;0,I18*J18,$Q$80)</f>
+        <v>6000</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <f aca="false">L18*$L$77</f>
+        <v>0.02898</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <f aca="false">K18*L18</f>
+        <v>1242</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <f aca="false">O18*$L$77</f>
+        <v>173.88</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>52</v>
+      <c r="C19" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B19*$Q$80/I19,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <f aca="false">IF(I19&gt;0,I19*J19,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <f aca="false">L19*$L$77</f>
+        <v>0.005152</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <f aca="false">K19*L19</f>
+        <v>110.4</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <f aca="false">O19*$L$77</f>
+        <v>15.456</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>1206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>57</v>
+      <c r="C20" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B20*$Q$80/I20,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">IF(I20&gt;0,I20*J20,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <f aca="false">L20*$L$77</f>
+        <v>0.005152</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <f aca="false">K20*L20</f>
+        <v>110.4</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <f aca="false">O20*$L$77</f>
+        <v>15.456</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="1" t="n">
         <v>1206</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>63</v>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B21*$Q$80/I21,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">IF(I21&gt;0,I21*J21,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.4025</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <f aca="false">L21*$L$77</f>
+        <v>0.05635</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <f aca="false">K21*L21</f>
+        <v>1207.5</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <f aca="false">O21*$L$77</f>
+        <v>169.05</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>65</v>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B22*$Q$80/I22,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <f aca="false">IF(I22&gt;0,I22*J22,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <f aca="false">L22*$L$77</f>
+        <v>0.005152</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <f aca="false">K22*L22</f>
+        <v>110.4</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <f aca="false">O22*$L$77</f>
+        <v>15.456</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22" s="1" t="n">
         <v>1206</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>69</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="11" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B23*$Q$80/I23,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K23" s="2" t="n">
+        <f aca="false">IF(I23&gt;0,I23*J23,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <f aca="false">L23*$L$77</f>
+        <v>0.021</v>
+      </c>
+      <c r="N23" s="13" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <f aca="false">K23*L23</f>
+        <v>82.5</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <f aca="false">O23*$L$77</f>
+        <v>11.55</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11"/>
+      <c r="BF23" s="11"/>
+      <c r="BG23" s="11"/>
+      <c r="BH23" s="11"/>
+      <c r="BI23" s="11"/>
+      <c r="BJ23" s="11"/>
+      <c r="BK23" s="11"/>
+      <c r="BL23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>532610271</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>72</v>
+      <c r="E24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>532610271</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B24*$Q$80/I24,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">IF(I24&gt;0,I24*J24,$Q$80)</f>
+        <v>1500</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <f aca="false">L24*$L$77</f>
+        <v>0.01288</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <f aca="false">K24*L24</f>
+        <v>138</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <f aca="false">O24*$L$77</f>
+        <v>19.32</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>76</v>
+      <c r="A25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B25*$Q$80/I25,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K25" s="2" t="n">
+        <f aca="false">IF(I25&gt;0,I25*J25,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <f aca="false">L25*$L$77</f>
+        <v>0.06762</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <f aca="false">K25*L25</f>
+        <v>265.65</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <f aca="false">O25*$L$77</f>
+        <v>37.191</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>80</v>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B26*$Q$80/I26,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K26" s="2" t="n">
+        <f aca="false">IF(I26&gt;0,I26*J26,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <f aca="false">L26*$L$77</f>
+        <v>0.0322</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <f aca="false">K26*L26</f>
+        <v>126.5</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <f aca="false">O26*$L$77</f>
+        <v>17.71</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>83</v>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B27*$Q$80/I27,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K27" s="2" t="n">
+        <f aca="false">IF(I27&gt;0,I27*J27,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <f aca="false">L27*$L$77</f>
+        <v>0.0483</v>
+      </c>
+      <c r="N27" s="4" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <f aca="false">K27*L27</f>
+        <v>189.75</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <f aca="false">O27*$L$77</f>
+        <v>26.565</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>85</v>
+        <v>159</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>87</v>
+        <v>161</v>
+      </c>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B28*$Q$80/I28,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">IF(I28&gt;0,I28*J28,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0" t="n">
+        <f aca="false">L28*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">K28*L28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">O28*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>90</v>
+      <c r="C29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="J29" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B29*$Q$80/I29,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K29" s="2" t="n">
+        <f aca="false">IF(I29&gt;0,I29*J29,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <f aca="false">L29*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="O29" s="4" t="n">
+        <f aca="false">K29*L29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <f aca="false">O29*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>94</v>
+      <c r="C30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B30*$Q$80/I30,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <f aca="false">IF(I30&gt;0,I30*J30,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>0.1495</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <f aca="false">L30*$L$77</f>
+        <v>0.02093</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O30" s="4" t="n">
+        <f aca="false">K30*L30</f>
+        <v>1495</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <f aca="false">O30*$L$77</f>
+        <v>209.3</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>96</v>
+      <c r="C31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>98</v>
+        <v>179</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B31*$Q$80/I31,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K31" s="2" t="n">
+        <f aca="false">IF(I31&gt;0,I31*J31,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <f aca="false">L31*$L$77</f>
+        <v>0.02254</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O31" s="4" t="n">
+        <f aca="false">K31*L31</f>
+        <v>88.55</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <f aca="false">O31*$L$77</f>
+        <v>12.397</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>94</v>
+      <c r="C32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B32*$Q$80/I32,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <f aca="false">IF(I32&gt;0,I32*J32,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>0.1495</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <f aca="false">L32*$L$77</f>
+        <v>0.02093</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <f aca="false">K32*L32</f>
+        <v>1495</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <f aca="false">O32*$L$77</f>
+        <v>209.3</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>94</v>
+      <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B33*$Q$80/I33,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <f aca="false">IF(I33&gt;0,I33*J33,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>0.1495</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <f aca="false">L33*$L$77</f>
+        <v>0.02093</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O33" s="4" t="n">
+        <f aca="false">K33*L33</f>
+        <v>1495</v>
+      </c>
+      <c r="P33" s="2" t="n">
+        <f aca="false">O33*$L$77</f>
+        <v>209.3</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>94</v>
+      <c r="C34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B34*$Q$80/I34,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <f aca="false">IF(I34&gt;0,I34*J34,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0.1495</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <f aca="false">L34*$L$77</f>
+        <v>0.02093</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O34" s="4" t="n">
+        <f aca="false">K34*L34</f>
+        <v>1495</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <f aca="false">O34*$L$77</f>
+        <v>209.3</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>94</v>
+      <c r="C35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B35*$Q$80/I35,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <f aca="false">IF(I35&gt;0,I35*J35,$Q$80)</f>
+        <v>10000</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>0.1495</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <f aca="false">L35*$L$77</f>
+        <v>0.02093</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O35" s="4" t="n">
+        <f aca="false">K35*L35</f>
+        <v>1495</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <f aca="false">O35*$L$77</f>
+        <v>209.3</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>108</v>
+      <c r="C36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>201</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>110</v>
+        <v>200</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B36*$Q$80/I36,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K36" s="2" t="n">
+        <f aca="false">IF(I36&gt;0,I36*J36,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <f aca="false">L36*$L$77</f>
+        <v>0.04186</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="O36" s="4" t="n">
+        <f aca="false">K36*L36</f>
+        <v>164.45</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <f aca="false">O36*$L$77</f>
+        <v>23.023</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>112</v>
+      <c r="C37" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>115</v>
+        <v>208</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B37*$Q$80/I37,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <f aca="false">IF(I37&gt;0,I37*J37,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.3207</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <f aca="false">L37*$L$77</f>
+        <v>0.044898</v>
+      </c>
+      <c r="O37" s="4" t="n">
+        <f aca="false">K37*L37</f>
+        <v>962.1</v>
+      </c>
+      <c r="P37" s="2" t="n">
+        <f aca="false">O37*$L$77</f>
+        <v>134.694</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>117</v>
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>115</v>
+        <v>215</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B38*$Q$80/I38,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <f aca="false">IF(I38&gt;0,I38*J38,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <f aca="false">L38*$L$77</f>
+        <v>0.00483</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <f aca="false">K38*L38</f>
+        <v>103.5</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <f aca="false">O38*$L$77</f>
+        <v>14.49</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>121</v>
+      <c r="C39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>218</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>123</v>
+        <v>220</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B39*$Q$80/I39,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <f aca="false">IF(I39&gt;0,I39*J39,$Q$80)</f>
+        <v>3000</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <f aca="false">L39*$L$77</f>
+        <v>0.0483</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O39" s="4" t="n">
+        <f aca="false">K39*L39</f>
+        <v>1035</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <f aca="false">O39*$L$77</f>
+        <v>144.9</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>125</v>
+      <c r="C40" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B40*$Q$80/I40,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <f aca="false">IF(I40&gt;0,I40*J40,$Q$80)</f>
+        <v>15000</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <f aca="false">L40*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4" t="n">
+        <f aca="false">K40*L40</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <f aca="false">O40*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>129</v>
+      <c r="C41" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B41*$Q$80/I41,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <f aca="false">IF(I41&gt;0,I41*J41,$Q$80)</f>
+        <v>15000</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <f aca="false">L41*$L$77</f>
+        <v>0.0002576</v>
+      </c>
+      <c r="O41" s="4" t="n">
+        <f aca="false">K41*L41</f>
+        <v>27.6</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <f aca="false">O41*$L$77</f>
+        <v>3.864</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>131</v>
+      <c r="C42" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B42*$Q$80/I42,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <f aca="false">IF(I42&gt;0,I42*J42,$Q$80)</f>
+        <v>15000</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <f aca="false">L42*$L$77</f>
+        <v>0.0002576</v>
+      </c>
+      <c r="O42" s="4" t="n">
+        <f aca="false">K42*L42</f>
+        <v>27.6</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <f aca="false">O42*$L$77</f>
+        <v>3.864</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>133</v>
+      <c r="C43" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B43*$Q$80/I43,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <f aca="false">IF(I43&gt;0,I43*J43,$Q$80)</f>
+        <v>15000</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="M43" s="4" t="n">
+        <f aca="false">L43*$L$77</f>
+        <v>0.0002576</v>
+      </c>
+      <c r="O43" s="4" t="n">
+        <f aca="false">K43*L43</f>
+        <v>27.6</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <f aca="false">O43*$L$77</f>
+        <v>3.864</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>135</v>
+      <c r="C44" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B44*$Q$80/I44,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <f aca="false">IF(I44&gt;0,I44*J44,$Q$80)</f>
+        <v>15000</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>0.00253</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <f aca="false">L44*$L$77</f>
+        <v>0.0003542</v>
+      </c>
+      <c r="O44" s="4" t="n">
+        <f aca="false">K44*L44</f>
+        <v>37.95</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <f aca="false">O44*$L$77</f>
+        <v>5.313</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="0" t="n">
+      <c r="A45" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="C45" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T45" s="17"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="16"/>
+      <c r="AP45" s="16"/>
+      <c r="AQ45" s="16"/>
+      <c r="AR45" s="16"/>
+      <c r="AS45" s="16"/>
+      <c r="AT45" s="16"/>
+      <c r="AU45" s="16"/>
+      <c r="AV45" s="16"/>
+      <c r="AW45" s="16"/>
+      <c r="AX45" s="16"/>
+      <c r="AY45" s="16"/>
+      <c r="AZ45" s="16"/>
+      <c r="BA45" s="16"/>
+      <c r="BB45" s="16"/>
+      <c r="BC45" s="16"/>
+      <c r="BD45" s="16"/>
+      <c r="BE45" s="16"/>
+      <c r="BF45" s="16"/>
+      <c r="BG45" s="16"/>
+      <c r="BH45" s="16"/>
+      <c r="BI45" s="16"/>
+      <c r="BJ45" s="16"/>
+      <c r="BK45" s="16"/>
+      <c r="BL45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>139</v>
+      <c r="C46" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B46*$Q$80/I46,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <f aca="false">IF(I46&gt;0,I46*J46,$Q$80)</f>
+        <v>15000</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <f aca="false">L46*$L$77</f>
+        <v>0.0002576</v>
+      </c>
+      <c r="O46" s="4" t="n">
+        <f aca="false">K46*L46</f>
+        <v>27.6</v>
+      </c>
+      <c r="P46" s="2" t="n">
+        <f aca="false">O46*$L$77</f>
+        <v>3.864</v>
+      </c>
+      <c r="R46" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>142</v>
-      </c>
+      <c r="A47" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J47" s="11" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B47*$Q$80/I47,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K47" s="2" t="n">
+        <f aca="false">IF(I47&gt;0,I47*J47,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L47" s="11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <f aca="false">L47*$L$77</f>
+        <v>0.1932</v>
+      </c>
+      <c r="N47" s="4" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="O47" s="4" t="n">
+        <f aca="false">K47*L47</f>
+        <v>759</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <f aca="false">O47*$L$77</f>
+        <v>106.26</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="11"/>
+      <c r="AZ47" s="11"/>
+      <c r="BA47" s="11"/>
+      <c r="BB47" s="11"/>
+      <c r="BC47" s="11"/>
+      <c r="BD47" s="11"/>
+      <c r="BE47" s="11"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="11"/>
+      <c r="BH47" s="11"/>
+      <c r="BI47" s="11"/>
+      <c r="BJ47" s="11"/>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>144</v>
+      <c r="C48" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>145</v>
+        <v>248</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B48*$Q$80/I48,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K48" s="2" t="n">
+        <f aca="false">IF(I48&gt;0,I48*J48,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <f aca="false">L48*$L$77</f>
+        <v>0.02898</v>
+      </c>
+      <c r="N48" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O48" s="4" t="n">
+        <f aca="false">K48*L48</f>
+        <v>113.85</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <f aca="false">O48*$L$77</f>
+        <v>15.939</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>151</v>
+        <v>254</v>
+      </c>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B49*$Q$80/I49,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">IF(I49&gt;0,I49*J49,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <f aca="false">L49*$L$77</f>
+        <v>0.0252</v>
+      </c>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0" t="n">
+        <f aca="false">K49*L49</f>
+        <v>99</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">O49*$L$77</f>
+        <v>13.86</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="T49" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>153</v>
+      <c r="C50" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>156</v>
+        <v>24</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B50*$Q$80/I50,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K50" s="2" t="n">
+        <f aca="false">IF(I50&gt;0,I50*J50,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>0.6325</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <f aca="false">L50*$L$77</f>
+        <v>0.08855</v>
+      </c>
+      <c r="N50" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O50" s="4" t="n">
+        <f aca="false">K50*L50</f>
+        <v>347.875</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <f aca="false">O50*$L$77</f>
+        <v>48.7025</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>158</v>
+      <c r="C51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>266</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>160</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="J51" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B51*$Q$80/I51,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K51" s="2" t="n">
+        <f aca="false">IF(I51&gt;0,I51*J51,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>12.075</v>
+      </c>
+      <c r="M51" s="4" t="n">
+        <f aca="false">L51*$L$77</f>
+        <v>1.6905</v>
+      </c>
+      <c r="N51" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O51" s="4" t="n">
+        <f aca="false">K51*L51</f>
+        <v>6641.25</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <f aca="false">O51*$L$77</f>
+        <v>929.775</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>162</v>
+      <c r="C52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>271</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>164</v>
+        <v>24</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="J52" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B52*$Q$80/I52,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K52" s="2" t="n">
+        <f aca="false">IF(I52&gt;0,I52*J52,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>7.0725</v>
+      </c>
+      <c r="M52" s="4" t="n">
+        <f aca="false">L52*$L$77</f>
+        <v>0.99015</v>
+      </c>
+      <c r="N52" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O52" s="4" t="n">
+        <f aca="false">K52*L52</f>
+        <v>3889.875</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <f aca="false">O52*$L$77</f>
+        <v>544.5825</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>167</v>
+        <v>276</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B53*$Q$80/I53,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">IF(I53&gt;0,I53*J53,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <f aca="false">L53*$L$77</f>
+        <v>1.89</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">K53*L53</f>
+        <v>7425</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">O53*$L$77</f>
+        <v>1039.5</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>169</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B54*$Q$80/I54,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">IF(I54&gt;0,I54*J54,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <f aca="false">L54*$L$77</f>
+        <v>6.16</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">K54*L54</f>
+        <v>24200</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">O54*$L$77</f>
+        <v>3388</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="S54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" s="0" t="s">
+      <c r="A55" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B55*$Q$80/I55,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K55" s="18" t="n">
+        <f aca="false">IF(I55&gt;0,I55*J55,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L55" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="20" t="n">
+        <f aca="false">L55*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="20" t="n">
+        <f aca="false">8*L77</f>
+        <v>1.12</v>
+      </c>
+      <c r="O55" s="20" t="n">
+        <f aca="false">K55*L55</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="18" t="n">
+        <f aca="false">O55*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17" t="s">
         <v>172</v>
       </c>
+      <c r="R55" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="T55" s="17"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="16"/>
+      <c r="AS55" s="16"/>
+      <c r="AT55" s="16"/>
+      <c r="AU55" s="16"/>
+      <c r="AV55" s="16"/>
+      <c r="AW55" s="16"/>
+      <c r="AX55" s="16"/>
+      <c r="AY55" s="16"/>
+      <c r="AZ55" s="16"/>
+      <c r="BA55" s="16"/>
+      <c r="BB55" s="16"/>
+      <c r="BC55" s="16"/>
+      <c r="BD55" s="16"/>
+      <c r="BE55" s="16"/>
+      <c r="BF55" s="16"/>
+      <c r="BG55" s="16"/>
+      <c r="BH55" s="16"/>
+      <c r="BI55" s="16"/>
+      <c r="BJ55" s="16"/>
+      <c r="BK55" s="16"/>
+      <c r="BL55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>174</v>
+      <c r="C56" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>178</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B56*$Q$80/I56,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K56" s="2" t="n">
+        <f aca="false">IF(I56&gt;0,I56*J56,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L56" s="3" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M56" s="4" t="n">
+        <f aca="false">L56*$L$77</f>
+        <v>0.4508</v>
+      </c>
+      <c r="N56" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O56" s="4" t="n">
+        <f aca="false">K56*L56</f>
+        <v>1771</v>
+      </c>
+      <c r="P56" s="2" t="n">
+        <f aca="false">O56*$L$77</f>
+        <v>247.94</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>181</v>
-      </c>
+      <c r="A57" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18" t="n">
+        <f aca="false">IF(I57&gt;0,I57*J57,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="16"/>
+      <c r="AI57" s="16"/>
+      <c r="AJ57" s="16"/>
+      <c r="AK57" s="16"/>
+      <c r="AL57" s="16"/>
+      <c r="AM57" s="16"/>
+      <c r="AN57" s="16"/>
+      <c r="AO57" s="16"/>
+      <c r="AP57" s="16"/>
+      <c r="AQ57" s="16"/>
+      <c r="AR57" s="16"/>
+      <c r="AS57" s="16"/>
+      <c r="AT57" s="16"/>
+      <c r="AU57" s="16"/>
+      <c r="AV57" s="16"/>
+      <c r="AW57" s="16"/>
+      <c r="AX57" s="16"/>
+      <c r="AY57" s="16"/>
+      <c r="AZ57" s="16"/>
+      <c r="BA57" s="16"/>
+      <c r="BB57" s="16"/>
+      <c r="BC57" s="16"/>
+      <c r="BD57" s="16"/>
+      <c r="BE57" s="16"/>
+      <c r="BF57" s="16"/>
+      <c r="BG57" s="16"/>
+      <c r="BH57" s="16"/>
+      <c r="BI57" s="16"/>
+      <c r="BJ57" s="16"/>
+      <c r="BK57" s="16"/>
+      <c r="BL57" s="16"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>184</v>
+      <c r="C58" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B58*$Q$80/I58,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K58" s="2" t="n">
+        <f aca="false">IF(I58&gt;0,I58*J58,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L58" s="3" t="n">
+        <v>3.0475</v>
+      </c>
+      <c r="M58" s="4" t="n">
+        <f aca="false">L58*$L$77</f>
+        <v>0.42665</v>
+      </c>
+      <c r="N58" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O58" s="4" t="n">
+        <f aca="false">K58*L58</f>
+        <v>1676.125</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <f aca="false">O58*$L$77</f>
+        <v>234.6575</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>186</v>
+      <c r="C59" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>311</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>188</v>
+        <v>312</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B59*$Q$80/I59,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K59" s="2" t="n">
+        <f aca="false">IF(I59&gt;0,I59*J59,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L59" s="3" t="n">
+        <v>3.5995</v>
+      </c>
+      <c r="M59" s="4" t="n">
+        <f aca="false">L59*$L$77</f>
+        <v>0.50393</v>
+      </c>
+      <c r="N59" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O59" s="4" t="n">
+        <f aca="false">K59*L59</f>
+        <v>1979.725</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <f aca="false">O59*$L$77</f>
+        <v>277.1615</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>190</v>
+      <c r="C60" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>317</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>193</v>
+        <v>319</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B60*$Q$80/I60,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K60" s="2" t="n">
+        <f aca="false">IF(I60&gt;0,I60*J60,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L60" s="3" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="M60" s="4" t="n">
+        <f aca="false">L60*$L$77</f>
+        <v>0.0966</v>
+      </c>
+      <c r="N60" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="O60" s="4" t="n">
+        <f aca="false">K60*L60</f>
+        <v>379.5</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <f aca="false">O60*$L$77</f>
+        <v>53.13</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>196</v>
+      <c r="C61" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>197</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B61*$Q$80/I61,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K61" s="2" t="n">
+        <f aca="false">IF(I61&gt;0,I61*J61,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L61" s="3" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="M61" s="4" t="n">
+        <f aca="false">L61*$L$77</f>
+        <v>0.0966</v>
+      </c>
+      <c r="N61" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O61" s="4" t="n">
+        <f aca="false">K61*L61</f>
+        <v>379.5</v>
+      </c>
+      <c r="P61" s="2" t="n">
+        <f aca="false">O61*$L$77</f>
+        <v>53.13</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="T61" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="J62" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B62*$Q$80/I62,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K62" s="2" t="n">
+        <f aca="false">IF(I62&gt;0,I62*J62,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="M62" s="4" t="n">
+        <f aca="false">L62*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="4" t="n">
+        <f aca="false">K62*L62</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="2" t="n">
+        <f aca="false">O62*$L$77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B63*$Q$80/I63,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K63" s="2" t="n">
+        <f aca="false">IF(I63&gt;0,I63*J63,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M63" s="4" t="n">
+        <f aca="false">L63*$L$77</f>
+        <v>0.5796</v>
+      </c>
+      <c r="N63" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O63" s="4" t="n">
+        <f aca="false">K63*L63</f>
+        <v>2277</v>
+      </c>
+      <c r="P63" s="2" t="n">
+        <f aca="false">O63*$L$77</f>
+        <v>318.78</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="22" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B64*$Q$80/I64,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K64" s="18" t="n">
+        <f aca="false">IF(I64&gt;0,I64*J64,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L64" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="20" t="n">
+        <f aca="false">L64*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O64" s="20" t="n">
+        <f aca="false">K64*L64</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="18" t="n">
+        <f aca="false">O64*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16"/>
+      <c r="AK64" s="16"/>
+      <c r="AL64" s="16"/>
+      <c r="AM64" s="16"/>
+      <c r="AN64" s="16"/>
+      <c r="AO64" s="16"/>
+      <c r="AP64" s="16"/>
+      <c r="AQ64" s="16"/>
+      <c r="AR64" s="16"/>
+      <c r="AS64" s="16"/>
+      <c r="AT64" s="16"/>
+      <c r="AU64" s="16"/>
+      <c r="AV64" s="16"/>
+      <c r="AW64" s="16"/>
+      <c r="AX64" s="16"/>
+      <c r="AY64" s="16"/>
+      <c r="AZ64" s="16"/>
+      <c r="BA64" s="16"/>
+      <c r="BB64" s="16"/>
+      <c r="BC64" s="16"/>
+      <c r="BD64" s="16"/>
+      <c r="BE64" s="16"/>
+      <c r="BF64" s="16"/>
+      <c r="BG64" s="16"/>
+      <c r="BH64" s="16"/>
+      <c r="BI64" s="16"/>
+      <c r="BJ64" s="16"/>
+      <c r="BK64" s="16"/>
+      <c r="BL64" s="16"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B65" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="16" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B65*$Q$80/I65,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K65" s="18" t="n">
+        <f aca="false">IF(I65&gt;0,I65*J65,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L65" s="19"/>
+      <c r="M65" s="20" t="n">
+        <f aca="false">L65*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="20" t="n">
+        <f aca="false">K65*L65</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="18" t="n">
+        <f aca="false">O65*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="16"/>
+      <c r="AK65" s="16"/>
+      <c r="AL65" s="16"/>
+      <c r="AM65" s="16"/>
+      <c r="AN65" s="16"/>
+      <c r="AO65" s="16"/>
+      <c r="AP65" s="16"/>
+      <c r="AQ65" s="16"/>
+      <c r="AR65" s="16"/>
+      <c r="AS65" s="16"/>
+      <c r="AT65" s="16"/>
+      <c r="AU65" s="16"/>
+      <c r="AV65" s="16"/>
+      <c r="AW65" s="16"/>
+      <c r="AX65" s="16"/>
+      <c r="AY65" s="16"/>
+      <c r="AZ65" s="16"/>
+      <c r="BA65" s="16"/>
+      <c r="BB65" s="16"/>
+      <c r="BC65" s="16"/>
+      <c r="BD65" s="16"/>
+      <c r="BE65" s="16"/>
+      <c r="BF65" s="16"/>
+      <c r="BG65" s="16"/>
+      <c r="BH65" s="16"/>
+      <c r="BI65" s="16"/>
+      <c r="BJ65" s="16"/>
+      <c r="BK65" s="16"/>
+      <c r="BL65" s="16"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="16" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B66*$Q$80/I66,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K66" s="18" t="n">
+        <f aca="false">IF(I66&gt;0,I66*J66,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L66" s="19"/>
+      <c r="M66" s="20" t="n">
+        <f aca="false">L66*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O66" s="20" t="n">
+        <f aca="false">K66*L66</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="18" t="n">
+        <f aca="false">O66*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="16"/>
+      <c r="AE66" s="16"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="16"/>
+      <c r="AI66" s="16"/>
+      <c r="AJ66" s="16"/>
+      <c r="AK66" s="16"/>
+      <c r="AL66" s="16"/>
+      <c r="AM66" s="16"/>
+      <c r="AN66" s="16"/>
+      <c r="AO66" s="16"/>
+      <c r="AP66" s="16"/>
+      <c r="AQ66" s="16"/>
+      <c r="AR66" s="16"/>
+      <c r="AS66" s="16"/>
+      <c r="AT66" s="16"/>
+      <c r="AU66" s="16"/>
+      <c r="AV66" s="16"/>
+      <c r="AW66" s="16"/>
+      <c r="AX66" s="16"/>
+      <c r="AY66" s="16"/>
+      <c r="AZ66" s="16"/>
+      <c r="BA66" s="16"/>
+      <c r="BB66" s="16"/>
+      <c r="BC66" s="16"/>
+      <c r="BD66" s="16"/>
+      <c r="BE66" s="16"/>
+      <c r="BF66" s="16"/>
+      <c r="BG66" s="16"/>
+      <c r="BH66" s="16"/>
+      <c r="BI66" s="16"/>
+      <c r="BJ66" s="16"/>
+      <c r="BK66" s="16"/>
+      <c r="BL66" s="16"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>64</v>
-      </c>
+      <c r="A67" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B67" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="22" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B67*$Q$80/I67,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K67" s="18" t="n">
+        <f aca="false">IF(I67&gt;0,I67*J67,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L67" s="19"/>
+      <c r="M67" s="20" t="n">
+        <f aca="false">L67*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20" t="n">
+        <f aca="false">K67*L67</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="18" t="n">
+        <f aca="false">O67*$L$77</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="16"/>
+      <c r="AE67" s="16"/>
+      <c r="AF67" s="16"/>
+      <c r="AG67" s="16"/>
+      <c r="AH67" s="16"/>
+      <c r="AI67" s="16"/>
+      <c r="AJ67" s="16"/>
+      <c r="AK67" s="16"/>
+      <c r="AL67" s="16"/>
+      <c r="AM67" s="16"/>
+      <c r="AN67" s="16"/>
+      <c r="AO67" s="16"/>
+      <c r="AP67" s="16"/>
+      <c r="AQ67" s="16"/>
+      <c r="AR67" s="16"/>
+      <c r="AS67" s="16"/>
+      <c r="AT67" s="16"/>
+      <c r="AU67" s="16"/>
+      <c r="AV67" s="16"/>
+      <c r="AW67" s="16"/>
+      <c r="AX67" s="16"/>
+      <c r="AY67" s="16"/>
+      <c r="AZ67" s="16"/>
+      <c r="BA67" s="16"/>
+      <c r="BB67" s="16"/>
+      <c r="BC67" s="16"/>
+      <c r="BD67" s="16"/>
+      <c r="BE67" s="16"/>
+      <c r="BF67" s="16"/>
+      <c r="BG67" s="16"/>
+      <c r="BH67" s="16"/>
+      <c r="BI67" s="16"/>
+      <c r="BJ67" s="16"/>
+      <c r="BK67" s="16"/>
+      <c r="BL67" s="16"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>188</v>
-      </c>
+      <c r="A68" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B68" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18" t="n">
+        <v>600</v>
+      </c>
+      <c r="J68" s="22" t="n">
+        <f aca="false">IFERROR( ROUNDUP(B68*$Q$80/I68,0), "" )</f>
+        <v>1</v>
+      </c>
+      <c r="K68" s="18" t="n">
+        <f aca="false">IF(I68&gt;0,I68*J68,$Q$80)</f>
+        <v>600</v>
+      </c>
+      <c r="L68" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" s="20" t="n">
+        <f aca="false">L68*$L$77</f>
+        <v>0.7</v>
+      </c>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20" t="n">
+        <f aca="false">K68*L68</f>
+        <v>3000</v>
+      </c>
+      <c r="P68" s="18" t="n">
+        <f aca="false">O68*$L$77</f>
+        <v>420</v>
+      </c>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="16"/>
+      <c r="AE68" s="16"/>
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="16"/>
+      <c r="AH68" s="16"/>
+      <c r="AI68" s="16"/>
+      <c r="AJ68" s="16"/>
+      <c r="AK68" s="16"/>
+      <c r="AL68" s="16"/>
+      <c r="AM68" s="16"/>
+      <c r="AN68" s="16"/>
+      <c r="AO68" s="16"/>
+      <c r="AP68" s="16"/>
+      <c r="AQ68" s="16"/>
+      <c r="AR68" s="16"/>
+      <c r="AS68" s="16"/>
+      <c r="AT68" s="16"/>
+      <c r="AU68" s="16"/>
+      <c r="AV68" s="16"/>
+      <c r="AW68" s="16"/>
+      <c r="AX68" s="16"/>
+      <c r="AY68" s="16"/>
+      <c r="AZ68" s="16"/>
+      <c r="BA68" s="16"/>
+      <c r="BB68" s="16"/>
+      <c r="BC68" s="16"/>
+      <c r="BD68" s="16"/>
+      <c r="BE68" s="16"/>
+      <c r="BF68" s="16"/>
+      <c r="BG68" s="16"/>
+      <c r="BH68" s="16"/>
+      <c r="BI68" s="16"/>
+      <c r="BJ68" s="16"/>
+      <c r="BK68" s="16"/>
+      <c r="BL68" s="16"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>182</v>
-      </c>
+      <c r="A69" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B69" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="22" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B69*$Q$80/I69,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K69" s="18" t="n">
+        <f aca="false">IF(I69&gt;0,I69*J69,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L69" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="M69" s="20" t="n">
+        <f aca="false">L69*$L$77</f>
+        <v>3.08</v>
+      </c>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20" t="n">
+        <f aca="false">K69*L69</f>
+        <v>12100</v>
+      </c>
+      <c r="P69" s="18" t="n">
+        <f aca="false">O69*$L$77</f>
+        <v>1694</v>
+      </c>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>203</v>
-      </c>
+      <c r="A70" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="22" t="str">
+        <f aca="false">IFERROR( ROUNDUP(B70*$Q$80/I70,0), "" )</f>
+        <v/>
+      </c>
+      <c r="K70" s="18" t="n">
+        <f aca="false">IF(I70&gt;0,I70*J70,$Q$80)</f>
+        <v>550</v>
+      </c>
+      <c r="L70" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="M70" s="20" t="n">
+        <f aca="false">L70*$L$77</f>
+        <v>3.5</v>
+      </c>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20" t="n">
+        <f aca="false">K70*L70</f>
+        <v>13750</v>
+      </c>
+      <c r="P70" s="18" t="n">
+        <f aca="false">O70*$L$77</f>
+        <v>1925</v>
+      </c>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="22"/>
+      <c r="AE70" s="22"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="22"/>
+      <c r="AH70" s="22"/>
+      <c r="AI70" s="22"/>
+      <c r="AJ70" s="22"/>
+      <c r="AK70" s="22"/>
+      <c r="AL70" s="22"/>
+      <c r="AM70" s="22"/>
+      <c r="AN70" s="22"/>
+      <c r="AO70" s="22"/>
+      <c r="AP70" s="22"/>
+      <c r="AQ70" s="22"/>
+      <c r="AR70" s="22"/>
+      <c r="AS70" s="22"/>
+      <c r="AT70" s="22"/>
+      <c r="AU70" s="22"/>
+      <c r="AV70" s="22"/>
+      <c r="AW70" s="22"/>
+      <c r="AX70" s="22"/>
+      <c r="AY70" s="22"/>
+      <c r="AZ70" s="22"/>
+      <c r="BA70" s="22"/>
+      <c r="BB70" s="22"/>
+      <c r="BC70" s="22"/>
+      <c r="BD70" s="22"/>
+      <c r="BE70" s="22"/>
+      <c r="BF70" s="22"/>
+      <c r="BG70" s="22"/>
+      <c r="BH70" s="22"/>
+      <c r="BI70" s="22"/>
+      <c r="BJ70" s="22"/>
+      <c r="BK70" s="22"/>
+      <c r="BL70" s="22"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>204</v>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="O73" s="8" t="n">
+        <f aca="false">SUM(O2:O72)</f>
+        <v>111540.24</v>
+      </c>
+      <c r="P73" s="8" t="n">
+        <f aca="false">SUM(P2:P72)</f>
+        <v>15615.6336</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>206</v>
+      <c r="K74" s="8"/>
+      <c r="N74" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="O74" s="10" t="n">
+        <f aca="false">O73/$Q$80</f>
+        <v>202.800436363636</v>
+      </c>
+      <c r="P74" s="10" t="n">
+        <f aca="false">P73/$Q$80</f>
+        <v>28.3920610909091</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>208</v>
+        <v>351</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <f aca="false">SUM(B2:B74)</f>
+        <v>191</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>210</v>
+      <c r="Q76" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R76" s="0" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>212</v>
-      </c>
+      <c r="K77" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="L77" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q77" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R77" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q78" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="R78" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q80" s="5" t="n">
+        <v>550</v>
+      </c>
+      <c r="R80" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q84" s="12"/>
+      <c r="R84" s="11"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R85" s="11"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="12"/>
+      <c r="L87" s="3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="11"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L88" s="3" t="n">
+        <f aca="false">0.33*50000*0.8</f>
+        <v>13200</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L89" s="3" t="n">
+        <f aca="false">SUM(L87:L88)</f>
+        <v>25200</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="12"/>
+      <c r="L90" s="3" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q90" s="12"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q91" s="12"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q92" s="12"/>
+      <c r="R92" s="11"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q93" s="12"/>
+      <c r="R93" s="11"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q94" s="12"/>
+      <c r="R94" s="11"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q95" s="12"/>
+      <c r="R95" s="11"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q96" s="12"/>
+      <c r="R96" s="11"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q98" s="12"/>
+      <c r="R98" s="11"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
